--- a/poeira domiciliar/Ficha poeira.xlsx
+++ b/poeira domiciliar/Ficha poeira.xlsx
@@ -1,40 +1,222 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27109"/>
   <workbookPr/>
-  <workbookProtection/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_7AB61F30AE61D770D6675BDBAAC33070BDE7C111" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B109D969-AE26-4B3D-B221-A18E1206E2C6}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+  <si>
+    <t>Responsavel Tecnico</t>
+  </si>
+  <si>
+    <t>Responsavel Preenchimento</t>
+  </si>
+  <si>
+    <t>Identificacao da amostra</t>
+  </si>
+  <si>
+    <t>area alvo</t>
+  </si>
+  <si>
+    <t>id do ponto</t>
+  </si>
+  <si>
+    <t>localidade e municipio</t>
+  </si>
+  <si>
+    <t>data coleta</t>
+  </si>
+  <si>
+    <t>hora</t>
+  </si>
+  <si>
+    <t>coord UTM (E)</t>
+  </si>
+  <si>
+    <t>coord UTM (S)</t>
+  </si>
+  <si>
+    <t>cond atmosferica</t>
+  </si>
+  <si>
+    <t>temperatura ambiente</t>
+  </si>
+  <si>
+    <t>chuva 24 horas</t>
+  </si>
+  <si>
+    <t>chuva 48 horas</t>
+  </si>
+  <si>
+    <t>local limpo recentemente</t>
+  </si>
+  <si>
+    <t>produtos utilizados</t>
+  </si>
+  <si>
+    <t>data limpeza</t>
+  </si>
+  <si>
+    <t>quantidade total amostrada</t>
+  </si>
+  <si>
+    <t>comodo amostrado</t>
+  </si>
+  <si>
+    <t>local/objeto amostrado</t>
+  </si>
+  <si>
+    <t>tempo de amostragem (min)</t>
+  </si>
+  <si>
+    <t>vazao (L/min)</t>
+  </si>
+  <si>
+    <t>observacoes</t>
+  </si>
+  <si>
+    <t>observacoes gerais</t>
+  </si>
+  <si>
+    <t>responsavel tecnico pela amostragem</t>
+  </si>
+  <si>
+    <t>Rogério</t>
+  </si>
+  <si>
+    <t>Fabio</t>
+  </si>
+  <si>
+    <t>ID-13</t>
+  </si>
+  <si>
+    <t>AA13</t>
+  </si>
+  <si>
+    <t>PT-13</t>
+  </si>
+  <si>
+    <t>uberaba</t>
+  </si>
+  <si>
+    <t>15:05</t>
+  </si>
+  <si>
+    <t>Nublado</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>Sabão em pó</t>
+  </si>
+  <si>
+    <t>['Sala', 'Cozinha']</t>
+  </si>
+  <si>
+    <t>['Armario', 'Mesa']</t>
+  </si>
+  <si>
+    <t>['2', '2.5']</t>
+  </si>
+  <si>
+    <t>['0.164', '0.412']</t>
+  </si>
+  <si>
+    <t>['', '']</t>
+  </si>
+  <si>
+    <t>Armario: 2.1m 
+Mesa: 1m</t>
+  </si>
+  <si>
+    <t>Rogerio</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>1523</t>
+  </si>
+  <si>
+    <t>PT-3532</t>
+  </si>
+  <si>
+    <t>Uberaba - MG</t>
+  </si>
+  <si>
+    <t>2023-11-05</t>
+  </si>
+  <si>
+    <t>14:32</t>
+  </si>
+  <si>
+    <t>-12,569</t>
+  </si>
+  <si>
+    <t>-34,521</t>
+  </si>
+  <si>
+    <t>2023-11-01</t>
+  </si>
+  <si>
+    <t>['']</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,94 +231,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -424,368 +556,230 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Responsavel Tecnico</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Responsavel Preenchimento</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>id da amostra</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>area alvo</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>id do ponto</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>localidade e municipio</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>data coleta</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>hora</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>coord UTM (E)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>coord UTM (S)</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>cond atmosferica</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>temperatura ambiente</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>chuva 24 horas</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>chuva 48 horas</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>local limpo recentemente</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>produtos utilizados</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>data limpeza</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>quantidade total amostrada</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>comodo amostrado</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>local/objeto amostrado</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>tempo de amostragem (min)</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>vazao (L/min)</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>observacoes</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>observacoes gerais</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>responsavel tecnico pela amostragem</t>
-        </is>
+    <row r="1" spans="1:25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Rogério</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Fabio</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>ID-13</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>AA13</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>PT-13</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>uberaba</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="n">
+    <row r="2" spans="1:25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2">
         <v>45229</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>15:05</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>-12.293</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-28.324</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Nublado</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2">
+        <v>-12.292999999999999</v>
+      </c>
+      <c r="J2">
+        <v>-28.324000000000002</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2">
         <v>24</v>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Sabão em pó</t>
-        </is>
-      </c>
-      <c r="Q2" s="2" t="n">
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="2">
         <v>45229</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>125</v>
       </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>['Sala', 'Cozinha']</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>['Armario', 'Mesa']</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>['2', '2.5']</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>['0.164', '0.412']</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>['', '']</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>Armario: 2.1m 
-Mesa: 1m</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>Rogerio</t>
-        </is>
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Lucas</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Fabio</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1523</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>AA13</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>PT-3532</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Uberaba - MG</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2023-11-05</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>14:32</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>-12,569</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>-34,521</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Nublado</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>2023-11-01</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>['']</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>['']</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>['']</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>['']</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>['']</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
+    <row r="3" spans="1:25">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V3" t="s">
+        <v>52</v>
+      </c>
+      <c r="W3" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -793,6 +787,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="db9d5e65-900d-4136-a2d9-b84c230c9751">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="067b8a2d-5c94-4f95-8131-a66158bbd083" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B29F6E6FF83FA94983268F03B4663D92" ma:contentTypeVersion="14" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="e0af9fe4c955a87c166569201c542f59">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="db9d5e65-900d-4136-a2d9-b84c230c9751" xmlns:ns3="067b8a2d-5c94-4f95-8131-a66158bbd083" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="91f90cd65e8696f87a03877262d170d8" ns2:_="" ns3:_="">
     <xsd:import namespace="db9d5e65-900d-4136-a2d9-b84c230c9751"/>
@@ -1021,28 +1035,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="db9d5e65-900d-4136-a2d9-b84c230c9751">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="067b8a2d-5c94-4f95-8131-a66158bbd083" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF6B9616-16C5-4F53-97D8-10E0865FCD21}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B964CF16-ACBD-46A3-9DB7-F84C2F856964}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1050,5 +1044,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B964CF16-ACBD-46A3-9DB7-F84C2F856964}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF6B9616-16C5-4F53-97D8-10E0865FCD21}"/>
 </file>